--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo2</t>
+  </si>
+  <si>
+    <t>Znrf3</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo2</t>
-  </si>
-  <si>
-    <t>Znrf3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>4.580553</v>
       </c>
       <c r="I2">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.036231666666667</v>
+        <v>1.325636333333333</v>
       </c>
       <c r="N2">
-        <v>3.108695</v>
+        <v>3.976909</v>
       </c>
       <c r="O2">
-        <v>0.09018629024029708</v>
+        <v>0.1236745921078505</v>
       </c>
       <c r="P2">
-        <v>0.09018629024029708</v>
+        <v>0.1236745921078504</v>
       </c>
       <c r="Q2">
-        <v>1.582171356481667</v>
+        <v>2.024049161186333</v>
       </c>
       <c r="R2">
-        <v>14.239542208335</v>
+        <v>18.216442450677</v>
       </c>
       <c r="S2">
-        <v>0.08937949378373905</v>
+        <v>0.1236745921078505</v>
       </c>
       <c r="T2">
-        <v>0.08937949378373905</v>
+        <v>0.1236745921078504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>4.580553</v>
       </c>
       <c r="I3">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>5.034276</v>
       </c>
       <c r="O3">
-        <v>0.1460492832155492</v>
+        <v>0.1565567708132977</v>
       </c>
       <c r="P3">
-        <v>0.1460492832155492</v>
+        <v>0.1565567708132977</v>
       </c>
       <c r="Q3">
         <v>2.562196448292</v>
@@ -638,10 +638,10 @@
         <v>23.059768034628</v>
       </c>
       <c r="S3">
-        <v>0.1447427426774343</v>
+        <v>0.1565567708132977</v>
       </c>
       <c r="T3">
-        <v>0.1447427426774343</v>
+        <v>0.1565567708132977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>4.580553</v>
       </c>
       <c r="I4">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.826506333333333</v>
+        <v>2.239683666666667</v>
       </c>
       <c r="N4">
-        <v>8.479519</v>
+        <v>6.719051</v>
       </c>
       <c r="O4">
-        <v>0.24599916094442</v>
+        <v>0.2089501901544251</v>
       </c>
       <c r="P4">
-        <v>0.24599916094442</v>
+        <v>0.2089501901544251</v>
       </c>
       <c r="Q4">
-        <v>4.315654021556333</v>
+        <v>3.419663246133667</v>
       </c>
       <c r="R4">
-        <v>38.840886194007</v>
+        <v>30.776969215203</v>
       </c>
       <c r="S4">
-        <v>0.243798479989062</v>
+        <v>0.2089501901544251</v>
       </c>
       <c r="T4">
-        <v>0.243798479989062</v>
+        <v>0.2089501901544251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>4.580553</v>
       </c>
       <c r="I5">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.058323</v>
+        <v>2.783146333333333</v>
       </c>
       <c r="N5">
-        <v>9.174969000000001</v>
+        <v>8.349439</v>
       </c>
       <c r="O5">
-        <v>0.2661748473812093</v>
+        <v>0.2596522733244283</v>
       </c>
       <c r="P5">
-        <v>0.2661748473812093</v>
+        <v>0.2596522733244283</v>
       </c>
       <c r="Q5">
-        <v>4.669603530873</v>
+        <v>4.249449762196333</v>
       </c>
       <c r="R5">
-        <v>42.02643177785701</v>
+        <v>38.24504785976701</v>
       </c>
       <c r="S5">
-        <v>0.2637936769935612</v>
+        <v>0.2596522733244283</v>
       </c>
       <c r="T5">
-        <v>0.2637936769935612</v>
+        <v>0.2596522733244283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>4.580553</v>
       </c>
       <c r="I6">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.890749333333333</v>
+        <v>2.692186</v>
       </c>
       <c r="N6">
-        <v>8.672248</v>
+        <v>8.076558</v>
       </c>
       <c r="O6">
-        <v>0.2515904182185245</v>
+        <v>0.2511661735999985</v>
       </c>
       <c r="P6">
-        <v>0.2515904182185245</v>
+        <v>0.2511661735999985</v>
       </c>
       <c r="Q6">
-        <v>4.413743510349334</v>
+        <v>4.110566886286</v>
       </c>
       <c r="R6">
-        <v>39.723691593144</v>
+        <v>36.99510197657401</v>
       </c>
       <c r="S6">
-        <v>0.2493397185015074</v>
+        <v>0.2511661735999985</v>
       </c>
       <c r="T6">
-        <v>0.2493397185015074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.041347</v>
-      </c>
-      <c r="I7">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J7">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.036231666666667</v>
-      </c>
-      <c r="N7">
-        <v>3.108695</v>
-      </c>
-      <c r="O7">
-        <v>0.09018629024029708</v>
-      </c>
-      <c r="P7">
-        <v>0.09018629024029708</v>
-      </c>
-      <c r="Q7">
-        <v>0.01428169024055556</v>
-      </c>
-      <c r="R7">
-        <v>0.128535212165</v>
-      </c>
-      <c r="S7">
-        <v>0.000806796456558031</v>
-      </c>
-      <c r="T7">
-        <v>0.0008067964565580309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.041347</v>
-      </c>
-      <c r="I8">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J8">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.678092</v>
-      </c>
-      <c r="N8">
-        <v>5.034276</v>
-      </c>
-      <c r="O8">
-        <v>0.1460492832155492</v>
-      </c>
-      <c r="P8">
-        <v>0.1460492832155492</v>
-      </c>
-      <c r="Q8">
-        <v>0.023128023308</v>
-      </c>
-      <c r="R8">
-        <v>0.208152209772</v>
-      </c>
-      <c r="S8">
-        <v>0.001306540538114913</v>
-      </c>
-      <c r="T8">
-        <v>0.001306540538114913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.041347</v>
-      </c>
-      <c r="I9">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J9">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.826506333333333</v>
-      </c>
-      <c r="N9">
-        <v>8.479519</v>
-      </c>
-      <c r="O9">
-        <v>0.24599916094442</v>
-      </c>
-      <c r="P9">
-        <v>0.24599916094442</v>
-      </c>
-      <c r="Q9">
-        <v>0.03895585245477778</v>
-      </c>
-      <c r="R9">
-        <v>0.350602672093</v>
-      </c>
-      <c r="S9">
-        <v>0.002200680955357955</v>
-      </c>
-      <c r="T9">
-        <v>0.002200680955357955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.041347</v>
-      </c>
-      <c r="I10">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J10">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.058323</v>
-      </c>
-      <c r="N10">
-        <v>9.174969000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.2661748473812093</v>
-      </c>
-      <c r="P10">
-        <v>0.2661748473812093</v>
-      </c>
-      <c r="Q10">
-        <v>0.042150827027</v>
-      </c>
-      <c r="R10">
-        <v>0.379357443243</v>
-      </c>
-      <c r="S10">
-        <v>0.002381170387648123</v>
-      </c>
-      <c r="T10">
-        <v>0.002381170387648123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.041347</v>
-      </c>
-      <c r="I11">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J11">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.890749333333333</v>
-      </c>
-      <c r="N11">
-        <v>8.672248</v>
-      </c>
-      <c r="O11">
-        <v>0.2515904182185245</v>
-      </c>
-      <c r="P11">
-        <v>0.2515904182185245</v>
-      </c>
-      <c r="Q11">
-        <v>0.03984127089511112</v>
-      </c>
-      <c r="R11">
-        <v>0.358571438056</v>
-      </c>
-      <c r="S11">
-        <v>0.002250699717017099</v>
-      </c>
-      <c r="T11">
-        <v>0.002250699717017099</v>
+        <v>0.2511661735999985</v>
       </c>
     </row>
   </sheetData>
